--- a/biology/Zoologie/Chaetodon_zanzibariensis/Chaetodon_zanzibariensis.xlsx
+++ b/biology/Zoologie/Chaetodon_zanzibariensis/Chaetodon_zanzibariensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaetodon zanzibarensis
-Le Poisson-papillon de Zanzibar (Chaetodon zanzibarensis ou Chaetodon zanzibariensis[1]) est une espèce de poissons de la famille des Chaetodontidae.
+Le Poisson-papillon de Zanzibar (Chaetodon zanzibarensis ou Chaetodon zanzibariensis) est une espèce de poissons de la famille des Chaetodontidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Sous-genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson-papillon de Zanzibar est un poisson-papillon qui fait partie du sous-genre Tetrachaetodon. En 1984, André Maugé et Roland Bauchot ont proposé de l'affecter à leur nouveau genre Nalbantius, ce qui donnerait comme nom scientifique pour ce poisson Nalbantius zanzibariensis.
 </t>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce mesure au maximum 12 cm.
 Sa coloration est jaune, avec des petites rayures horizontales, une tache foncée sur le côté et une barre noire passant par l'œil.
@@ -575,7 +591,9 @@
           <t>Biologie et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un poisson corallien, et qui se nourrit de corail et d'invertébrés.
 </t>
@@ -606,7 +624,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson-papillon de Zanzibar se rencontre dans la moitié ouest de l'océan Indien.
 </t>
@@ -637,7 +657,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson est déconseillé en aquarium, car il est très difficile à nourrir.
 </t>
